--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -35,6 +35,9 @@
     <t>主键</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
@@ -47,21 +50,21 @@
     <t>图标</t>
   </si>
   <si>
-    <t>int32</t>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int8</t>
-  </si>
-  <si>
     <t>HEADER</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -74,61 +77,70 @@
     <t>icon</t>
   </si>
   <si>
-    <t>降龙十八掌</t>
-  </si>
-  <si>
-    <t>丐帮绝学，为丐帮镇帮神功</t>
-  </si>
-  <si>
-    <t>1.png</t>
-  </si>
-  <si>
-    <t>九阴真经</t>
-  </si>
-  <si>
-    <t>黄裳所著，为武林中的顶级武学典籍</t>
-  </si>
-  <si>
-    <t>2.png</t>
-  </si>
-  <si>
-    <t>九阳神功</t>
-  </si>
-  <si>
-    <t>相传为达摩祖师所创，后被觉远大师和张无忌习得</t>
-  </si>
-  <si>
-    <t>3.png</t>
-  </si>
-  <si>
-    <t>太玄经</t>
-  </si>
-  <si>
-    <t>侠客行》中侠客岛上的神秘武功，刻在侠客岛山洞石壁上</t>
-  </si>
-  <si>
-    <t>4.png</t>
-  </si>
-  <si>
-    <t>小无相功</t>
-  </si>
-  <si>
-    <t>逍遥派绝学</t>
-  </si>
-  <si>
-    <t>5.png</t>
+    <t>刘备碎片</t>
+  </si>
+  <si>
+    <t>吕布碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>关羽碎片</t>
+  </si>
+  <si>
+    <t>关羽碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>诸葛亮碎片</t>
+  </si>
+  <si>
+    <t>诸葛亮碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>赵云碎片</t>
+  </si>
+  <si>
+    <t>赵云碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>吕布碎片</t>
+  </si>
+  <si>
+    <t>许禇碎片</t>
+  </si>
+  <si>
+    <t>许禇碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>曹操碎片</t>
+  </si>
+  <si>
+    <t>曹操碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+  </si>
+  <si>
+    <t>张飞碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>貂蝉碎片</t>
+  </si>
+  <si>
+    <t>貂蝉碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>黄忠碎片</t>
+  </si>
+  <si>
+    <t>黄忠碎片，用于合成英雄</t>
   </si>
   <si>
     <t>END</t>
   </si>
   <si>
-    <t>葵花宝典</t>
-  </si>
-  <si>
-    <t>来源神秘，有多种说法，一说由前朝太监所创</t>
-  </si>
-  <si>
-    <t>6.png</t>
+    <t>陆逊碎片</t>
+  </si>
+  <si>
+    <t>陆逊碎片，用于合成英雄</t>
   </si>
 </sst>
 </file>
@@ -141,19 +153,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -620,141 +626,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,22 +1293,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="11.8166666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.54166666666667" customWidth="1"/>
-    <col min="5" max="5" width="95.75" customWidth="1"/>
-    <col min="6" max="6" width="18.5416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.54166666666667" customWidth="1"/>
+    <col min="6" max="6" width="38.8166666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1324,10 +1327,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1339,10 +1345,13 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1361,110 +1370,231 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="17.25" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
+      <c r="G4">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="5" ht="17.25" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="6" ht="17.25" spans="2:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
+      <c r="G7">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="7" ht="17.25" spans="2:6">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>26</v>
       </c>
+      <c r="G9">
+        <v>1006</v>
+      </c>
     </row>
-    <row r="8" ht="17.25" spans="2:6">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G10">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>1008</v>
+      </c>
     </row>
-    <row r="9" ht="17.25" spans="1:6">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G12">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13">
+        <v>1010</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1011</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -134,13 +134,25 @@
     <t>黄忠碎片，用于合成英雄</t>
   </si>
   <si>
+    <t>陆逊碎片</t>
+  </si>
+  <si>
+    <t>陆逊碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>升级丹</t>
+  </si>
+  <si>
+    <t>可以让主角直升一级</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t>陆逊碎片</t>
-  </si>
-  <si>
-    <t>陆逊碎片，用于合成英雄</t>
+    <t>招募令</t>
+  </si>
+  <si>
+    <t>招募令，用于英雄招募</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1574,10 +1586,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>1011</v>
       </c>
@@ -1585,16 +1594,59 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
       </c>
       <c r="G14">
         <v>1011</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>2002</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -140,19 +140,31 @@
     <t>陆逊碎片，用于合成英雄</t>
   </si>
   <si>
-    <t>升级丹</t>
-  </si>
-  <si>
-    <t>可以让主角直升一级</t>
+    <t>宠物升级丹</t>
+  </si>
+  <si>
+    <t>宠物升级材料</t>
+  </si>
+  <si>
+    <t>招募令</t>
+  </si>
+  <si>
+    <t>招募令，用于英雄招募</t>
+  </si>
+  <si>
+    <t>九州灵石</t>
+  </si>
+  <si>
+    <t>来自各地的神秘力量，蕴含着天地之间的灵气，可帮助英雄突破自身的限制</t>
   </si>
   <si>
     <t>END</t>
   </si>
   <si>
-    <t>招募令</t>
-  </si>
-  <si>
-    <t>招募令，用于英雄招募</t>
+    <t>改名卡</t>
+  </si>
+  <si>
+    <t>可能修改玩家昵称</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1317,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1626,10 +1638,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>2002</v>
       </c>
@@ -1637,16 +1646,59 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>2002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17">
+        <v>2003</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>

--- a/data/item.xlsx
+++ b/data/item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t xml:space="preserve"> 字段</t>
   </si>
@@ -77,67 +77,58 @@
     <t>icon</t>
   </si>
   <si>
-    <t>刘备碎片</t>
+    <t>吕布碎片</t>
   </si>
   <si>
     <t>吕布碎片，用于合成英雄</t>
   </si>
   <si>
+    <t>许禇碎片</t>
+  </si>
+  <si>
+    <t>许禇碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>诸葛亮碎片</t>
+  </si>
+  <si>
+    <t>诸葛亮碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+  </si>
+  <si>
+    <t>张飞碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>貂蝉碎片</t>
+  </si>
+  <si>
+    <t>貂蝉碎片，用于合成英雄</t>
+  </si>
+  <si>
+    <t>黄忠碎片</t>
+  </si>
+  <si>
+    <t>黄忠碎片，用于合成英雄</t>
+  </si>
+  <si>
     <t>关羽碎片</t>
   </si>
   <si>
     <t>关羽碎片，用于合成英雄</t>
   </si>
   <si>
-    <t>诸葛亮碎片</t>
-  </si>
-  <si>
-    <t>诸葛亮碎片，用于合成英雄</t>
+    <t>陆逊碎片</t>
+  </si>
+  <si>
+    <t>陆逊碎片，用于合成英雄</t>
   </si>
   <si>
     <t>赵云碎片</t>
   </si>
   <si>
     <t>赵云碎片，用于合成英雄</t>
-  </si>
-  <si>
-    <t>吕布碎片</t>
-  </si>
-  <si>
-    <t>许禇碎片</t>
-  </si>
-  <si>
-    <t>许禇碎片，用于合成英雄</t>
-  </si>
-  <si>
-    <t>曹操碎片</t>
-  </si>
-  <si>
-    <t>曹操碎片，用于合成英雄</t>
-  </si>
-  <si>
-    <t>张飞碎片</t>
-  </si>
-  <si>
-    <t>张飞碎片，用于合成英雄</t>
-  </si>
-  <si>
-    <t>貂蝉碎片</t>
-  </si>
-  <si>
-    <t>貂蝉碎片，用于合成英雄</t>
-  </si>
-  <si>
-    <t>黄忠碎片</t>
-  </si>
-  <si>
-    <t>黄忠碎片，用于合成英雄</t>
-  </si>
-  <si>
-    <t>陆逊碎片</t>
-  </si>
-  <si>
-    <t>陆逊碎片，用于合成英雄</t>
   </si>
   <si>
     <t>宠物升级丹</t>
@@ -1317,10 +1308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1329,7 +1320,7 @@
     <col min="4" max="4" width="11.8166666666667" customWidth="1"/>
     <col min="5" max="5" width="8.54166666666667" customWidth="1"/>
     <col min="6" max="6" width="38.8166666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.5416666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1400,7 +1391,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1415,12 +1406,12 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1435,12 +1426,12 @@
         <v>19</v>
       </c>
       <c r="G5">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1455,12 +1446,12 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1475,12 +1466,12 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1492,219 +1483,176 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>1005</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>1007</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>1009</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
-        <v>1010</v>
+        <v>2001</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>1010</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14">
-        <v>1011</v>
+        <v>2002</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>1011</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
       <c r="B16">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17">
-        <v>2003</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18">
-        <v>2004</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18">
         <v>2004</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B20:I24">
-    <sortCondition ref="B20"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
